--- a/medicine/Mort/Fallen_Astronaut/Fallen_Astronaut.xlsx
+++ b/medicine/Mort/Fallen_Astronaut/Fallen_Astronaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fallen Astronaut (de l'anglais, litt. l'« Astronaute tombé ») est une petite sculpture en aluminium représentant de façon stylisée un astronaute dans sa combinaison spatiale. Cette statuette, qui mesure environ 8,5 cm de haut, a été déposée sur la Lune par l'équipage américain d'Apollo 15 en 1971. C'est l'unique œuvre d'art dont on sait avec certitude qu'elle se trouve sur la Lune (en effet Moon Museum y aurait été apporté clandestinement par Apollo 12 en 1969, mais il n'existe pas de preuve).
@@ -512,9 +524,11 @@
           <t>Conception</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sculpture a été réalisée par l'artiste belge Paul Van Hoeydonck à la suite de sa rencontre avec l'équipage d'Apollo 15 (dont David Scott) au début du mois de juin 1971. Cette statuette a trouvé une fonction trois semaines plus tard lorsque l'équipage, marqué par la mort de trois cosmonautes russes, a proposé à la NASA de s'en servir pour commémorer nominativement les astronautes et cosmonautes morts pour et pendant l'exploration de l'espace[1]. Un certain nombre de consignes avaient été données à l'artiste[réf. nécessaire] : la sculpture devait être légère, solide, capable de supporter les variations de températures extrêmes à la surface lunaire ; elle ne devait pas permettre d'identifier en elle un homme ou une femme, ni même aucun groupe ethnique. De plus, en accord avec le souhait de Scott d'éviter une commercialisation de l'espace, le nom de Van Hoeydonck ne serait pas dévoilé au public.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sculpture a été réalisée par l'artiste belge Paul Van Hoeydonck à la suite de sa rencontre avec l'équipage d'Apollo 15 (dont David Scott) au début du mois de juin 1971. Cette statuette a trouvé une fonction trois semaines plus tard lorsque l'équipage, marqué par la mort de trois cosmonautes russes, a proposé à la NASA de s'en servir pour commémorer nominativement les astronautes et cosmonautes morts pour et pendant l'exploration de l'espace. Un certain nombre de consignes avaient été données à l'artiste[réf. nécessaire] : la sculpture devait être légère, solide, capable de supporter les variations de températures extrêmes à la surface lunaire ; elle ne devait pas permettre d'identifier en elle un homme ou une femme, ni même aucun groupe ethnique. De plus, en accord avec le souhait de Scott d'éviter une commercialisation de l'espace, le nom de Van Hoeydonck ne serait pas dévoilé au public.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Dépôt sur la Lune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fallen Astronaut fut déposée sur la Lune, près du rover lunaire à sa position finale, dans la plaine[2] au pied du mont Hadley, le 2 août 1971[3] par David Scott de l'équipage d'Apollo 15[2], près d'une plaque commémorative portant les noms de huit astronautes américains et de six cosmonautes soviétiques. Seuls les noms sont inscrits, sans mention des nationalités.
-David Scott, dans un livre de 2004[4], indique qu'il manque sur la plaque les noms de deux cosmonautes soviétiques : Valentin Bondarenko, mort le 23 mars 1961 à l'entraînement dans l'incendie d'un caisson pressurisé, et Grigori Nelioubov, mort le 18 février 1966 écrasé par un train, suicide ou accident. En effet, l'équipage d'Apollo 15 n'était pas au courant de leur mort à l'époque de la réalisation de la plaque, en raison du secret entourant le programme spatial soviétique. De plus, Robert H. Lawrence, astronaute américain mort le 8 décembre 1967 dans l'accident du F-104 qu'il pilotait, est également cité comme manquant sur la plaque[5].
-Après le dépôt de l'œuvre sur la Lune, Van Hoeydonck exprima son désaccord sur le nom donné à l'œuvre et regretta que la statuette ait été couchée et non mise debout comme il l'aurait souhaité, exprimant un sens différent de l'œuvre[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fallen Astronaut fut déposée sur la Lune, près du rover lunaire à sa position finale, dans la plaine au pied du mont Hadley, le 2 août 1971 par David Scott de l'équipage d'Apollo 15, près d'une plaque commémorative portant les noms de huit astronautes américains et de six cosmonautes soviétiques. Seuls les noms sont inscrits, sans mention des nationalités.
+David Scott, dans un livre de 2004, indique qu'il manque sur la plaque les noms de deux cosmonautes soviétiques : Valentin Bondarenko, mort le 23 mars 1961 à l'entraînement dans l'incendie d'un caisson pressurisé, et Grigori Nelioubov, mort le 18 février 1966 écrasé par un train, suicide ou accident. En effet, l'équipage d'Apollo 15 n'était pas au courant de leur mort à l'époque de la réalisation de la plaque, en raison du secret entourant le programme spatial soviétique. De plus, Robert H. Lawrence, astronaute américain mort le 8 décembre 1967 dans l'accident du F-104 qu'il pilotait, est également cité comme manquant sur la plaque.
+Après le dépôt de l'œuvre sur la Lune, Van Hoeydonck exprima son désaccord sur le nom donné à l'œuvre et regretta que la statuette ait été couchée et non mise debout comme il l'aurait souhaité, exprimant un sens différent de l'œuvre.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Répliques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès que l'équipage d'Apollo 15 eut mentionné la statuette pendant une conférence de presse d'après-vol, le National Air and Space Museum en réclama une copie pour l'exposer au public. L'équipage accepta sous la réserve que cette exposition fût « with good taste and without publicity » (c'est-à-dire « de bon goût et sans publicité »). La réplique de Fallen Astronaut fut présentée par Van Hoeydonck au musée en avril 1972. Cette réplique y est aujourd'hui exposée avec une réplique de la plaque commémorative[7],[8],[9].
-Une autre réplique se trouve au musée d'art contemporain d'Anvers (M HKA)[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès que l'équipage d'Apollo 15 eut mentionné la statuette pendant une conférence de presse d'après-vol, le National Air and Space Museum en réclama une copie pour l'exposer au public. L'équipage accepta sous la réserve que cette exposition fût « with good taste and without publicity » (c'est-à-dire « de bon goût et sans publicité »). La réplique de Fallen Astronaut fut présentée par Van Hoeydonck au musée en avril 1972. Cette réplique y est aujourd'hui exposée avec une réplique de la plaque commémorative.
+Une autre réplique se trouve au musée d'art contemporain d'Anvers (M HKA).
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Noms figurant sur la plaque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms figurant sur la plaque sont listés par ordre alphabétique[3],[11], mêlant Américains et Soviétiques.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms figurant sur la plaque sont listés par ordre alphabétique mêlant Américains et Soviétiques.
 </t>
         </is>
       </c>
